--- a/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `ElementDefinition.fixed[x]` 0..1 `Address, Age, Annotation, Attachment, base64Binary, boolean, canonical, code, CodeableConcept, Coding, ContactDetail, ContactPoint, Contributor, Count, DataRequirement, date, dateTime, decimal, Distance, Dosage, Duration, Expression, HumanName, id, Identifier, instant, integer, markdown, Meta, Money, oid, ParameterDefinition, Period, positiveInt, Quantity, Range, Ratio, Reference, RelatedArtifact, SampledData, Signature, string, time, Timing, TriggerDefinition, unsignedInt, uri, url, UsageContext, uuid`
 Following are the generation technical comments:
 Note that the target element context `ElementDefinition.fixed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.
-Element `ElementDefinition.fixed[x]` is mapped to FHIR R4 element `ElementDefinition.fixed[x]`.
+Element `ElementDefinition.fixed[x]` has is mapped to FHIR R4 element `ElementDefinition.fixed[x]`, but has no comparisons.
 Note that the target element context `ElementDefinition.fixed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.</t>
   </si>
   <si>
@@ -477,6 +477,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.daysOfWeek</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:daysOfWeek.value[x]</t>
   </si>
   <si>
@@ -520,6 +523,9 @@
     <t>Extension.extension:availableTime.extension:allDay.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.allDay</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:allDay.value[x]</t>
   </si>
   <si>
@@ -554,6 +560,9 @@
     <t>Extension.extension:availableTime.extension:availableStartTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableStartTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableStartTime.value[x]</t>
   </si>
   <si>
@@ -585,6 +594,9 @@
     <t>Extension.extension:availableTime.extension:availableEndTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableEndTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableEndTime.value[x]</t>
   </si>
   <si>
@@ -647,6 +659,9 @@
     <t>Extension.extension:notAvailableTime.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.description</t>
+  </si>
+  <si>
     <t>Extension.extension:notAvailableTime.extension:description.value[x]</t>
   </si>
   <si>
@@ -672,6 +687,9 @@
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.during</t>
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.value[x]</t>
@@ -2668,7 +2686,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2730,10 +2748,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2756,7 +2774,7 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>138</v>
@@ -2789,13 +2807,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2833,13 +2851,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2864,14 +2882,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2940,7 +2958,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3043,7 +3061,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3148,7 +3166,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3191,7 +3209,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3253,10 +3271,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3279,13 +3297,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3356,13 +3374,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3387,16 +3405,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3465,7 +3483,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3568,7 +3586,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3673,7 +3691,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3716,7 +3734,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3778,10 +3796,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3804,16 +3822,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3883,13 +3901,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3914,16 +3932,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3992,7 +4010,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4095,7 +4113,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4200,7 +4218,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4243,7 +4261,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4305,10 +4323,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4331,16 +4349,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4410,7 +4428,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4515,7 +4533,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4541,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4618,13 +4636,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4649,14 +4667,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4725,7 +4743,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4828,7 +4846,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4931,13 +4949,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4962,16 +4980,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5040,7 +5058,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5143,7 +5161,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5248,7 +5266,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5291,7 +5309,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5353,10 +5371,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5382,13 +5400,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5458,13 +5476,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5489,14 +5507,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5565,7 +5583,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5668,7 +5686,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5773,7 +5791,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5816,7 +5834,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5878,10 +5896,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5904,13 +5922,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5981,7 +5999,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6024,7 +6042,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6086,7 +6104,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6112,7 +6130,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6320,7 +6338,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,15 +488,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1052,8 +1043,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2807,13 +2798,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2851,13 +2842,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2882,14 +2873,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2958,7 +2949,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3061,7 +3052,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3166,7 +3157,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3209,7 +3200,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3271,7 +3262,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>149</v>
@@ -3297,13 +3288,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3374,13 +3365,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3405,16 +3396,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3483,7 +3474,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3586,7 +3577,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3691,7 +3682,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3734,7 +3725,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3796,7 +3787,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>149</v>
@@ -3822,16 +3813,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3901,13 +3892,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3932,16 +3923,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4010,7 +4001,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4113,7 +4104,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4218,7 +4209,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4261,7 +4252,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4323,7 +4314,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>149</v>
@@ -4349,16 +4340,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4428,7 +4419,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4533,7 +4524,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4559,7 +4550,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4636,13 +4627,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4667,14 +4658,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4743,7 +4734,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4846,7 +4837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4949,13 +4940,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4980,16 +4971,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5058,7 +5049,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5161,7 +5152,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5266,7 +5257,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5309,7 +5300,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5371,7 +5362,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>149</v>
@@ -5400,13 +5391,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5476,13 +5467,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5507,14 +5498,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5583,7 +5574,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5686,7 +5677,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5791,7 +5782,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5834,7 +5825,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5896,7 +5887,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>149</v>
@@ -5922,13 +5913,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5999,7 +5990,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6042,7 +6033,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6104,7 +6095,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6130,7 +6121,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6338,7 +6329,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.fixed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `ElementDefinition.fixed[x]` 0..1 `Address, Age, Annotation, Attachment, base64Binary, boolean, canonical, code, CodeableConcept, Coding, ContactDetail, ContactPoint, Contributor, Count, DataRequirement, date, dateTime, decimal, Distance, Dosage, Duration, Expression, HumanName, id, Identifier, instant, integer, markdown, Meta, Money, oid, ParameterDefinition, Period, positiveInt, Quantity, Range, Ratio, Reference, RelatedArtifact, SampledData, Signature, string, time, Timing, TriggerDefinition, unsignedInt, uri, url, UsageContext, uuid`
 Following are the generation technical comments:
 Note that the target element context `ElementDefinition.fixed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.
-Element `ElementDefinition.fixed[x]` has is mapped to FHIR R4 element `ElementDefinition.fixed[x]`, but has no comparisons.
+Element `ElementDefinition.fixed[x]` is mapped to FHIR R4 element `ElementDefinition.fixed[x]` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `ElementDefinition.fixed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.</t>
   </si>
   <si>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,6 +488,15 @@
   <si>
     <t xml:space="preserve">code
 </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1043,8 +1052,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.84375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2798,13 +2807,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2842,13 +2851,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2873,14 +2882,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2949,7 +2958,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3052,7 +3061,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3157,7 +3166,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3200,7 +3209,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3262,7 +3271,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>149</v>
@@ -3288,13 +3297,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3365,13 +3374,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3396,16 +3405,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3474,7 +3483,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3577,7 +3586,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3682,7 +3691,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3725,7 +3734,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3796,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>149</v>
@@ -3813,16 +3822,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3892,13 +3901,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3923,16 +3932,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4001,7 +4010,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4104,7 +4113,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4209,7 +4218,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4252,7 +4261,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4314,7 +4323,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>149</v>
@@ -4340,16 +4349,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4419,7 +4428,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4524,7 +4533,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4550,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4627,13 +4636,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4658,14 +4667,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4734,7 +4743,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4837,7 +4846,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4940,13 +4949,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4971,16 +4980,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5049,7 +5058,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5152,7 +5161,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5257,7 +5266,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5300,7 +5309,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5362,7 +5371,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>149</v>
@@ -5391,13 +5400,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5467,13 +5476,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5498,14 +5507,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5574,7 +5583,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5677,7 +5686,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5782,7 +5791,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5825,7 +5834,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5887,7 +5896,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>149</v>
@@ -5913,13 +5922,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5990,7 +5999,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6033,7 +6042,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6095,7 +6104,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6121,7 +6130,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6329,7 +6338,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>
